--- a/medicine/Sexualité et sexologie/À_coup_sûr/À_coup_sûr.xlsx
+++ b/medicine/Sexualité et sexologie/À_coup_sûr/À_coup_sûr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%80_coup_s%C3%BBr</t>
+          <t>À_coup_sûr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">À coup sûr est un film français coécrit et réalisé par Delphine de Vigan, sorti en 2014. Il s'agit du premier film en tant que réalisatrice de l'écrivaine (No et Moi, Rien ne s'oppose à la nuit), qui en a écrit le scénario avec Chris Esquerre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%80_coup_s%C3%BBr</t>
+          <t>À_coup_sûr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emma (Laurence Arné), jeune femme dynamique à qui tout réussit et élevée par son père dans le culte de la performance, remet en question ses compétences en matière de sexualité à la suite d'un retour très négatif de son dernier partenaire. Dès lors, elle décide de devenir le meilleur coup de Paris et de façon très méthodique, avec un plan d'action scientifique (théorie, travaux pratiques, validation des acquis..) : pour ce faire elle rencontrera un sexologue, une escort girl et un acteur porno, avant de réaliser que les choses ne sont pas si simples.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%80_coup_s%C3%BBr</t>
+          <t>À_coup_sûr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : À coup sûr
 Réalisation : Delphine de Vigan
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%80_coup_s%C3%BBr</t>
+          <t>À_coup_sûr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Laurence Arné : Emma Dorian
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%80_coup_s%C3%BBr</t>
+          <t>À_coup_sûr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,8 +656,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le tournage du film a lieu à Paris, et notamment au Café Campana[1], situé au Musée d'Orsay dans le 7e Arrondissement.
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage du film a lieu à Paris, et notamment au Café Campana, situé au Musée d'Orsay dans le 7e Arrondissement.
 </t>
         </is>
       </c>
@@ -650,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%80_coup_s%C3%BBr</t>
+          <t>À_coup_sûr</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,8 +693,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Box-office
-Le film fait 129 656 entrées en France[2].
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film fait 129 656 entrées en France.
 </t>
         </is>
       </c>
@@ -682,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%80_coup_s%C3%BBr</t>
+          <t>À_coup_sûr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -700,7 +728,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Il s’agit du premier long métrage de Delphine de Vigan.</t>
         </is>
